--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52237.30997202628</v>
+        <v>-54675.7830717726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12687223.33087296</v>
+        <v>12687223.33087297</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>1.94783425622943</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>140.6229712925388</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>231.4111910351402</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>167.7092112268745</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>138.644421030339</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.3852353535185</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.9066036119066</v>
+        <v>57.86367905270195</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>70.33495409138587</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>103.6905821001422</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>59.80165496339974</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>4.416820816806421</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>77.45995612832809</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>20.3842717819797</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4262124629291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>132.6164309267676</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.95257707283392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>31.24750433886444</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>153.2646806878225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.3999237630426</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2893995353463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>193.9313104494263</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>153.589961858651</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,7 +4343,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3323.638312259445</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3117.660564643667</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2864.130087917503</v>
       </c>
       <c r="V2" t="n">
-        <v>3073.271747790268</v>
+        <v>2864.130087917503</v>
       </c>
       <c r="W2" t="n">
-        <v>2839.523069976995</v>
+        <v>2511.361432647389</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>2341.958188983879</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>1951.818857008067</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4419,40 +4419,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1787.249678360878</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1565.483062930404</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.483062930404</v>
+        <v>2868.952878826335</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.798574724517</v>
+        <v>2614.268390620448</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>2324.851220583488</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>2096.86166968547</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1876.06909054194</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.5608581015648</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.65206724243</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1289.967579036543</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.550408999582</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>772.5608581015648</v>
+        <v>997.2528898752885</v>
       </c>
       <c r="Y7" t="n">
-        <v>772.5608581015648</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2805.691885182988</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2452.923229912873</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2079.457471651794</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.455095487943</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V10" t="n">
-        <v>1282.770607282056</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>993.3534372450949</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>993.3534372450949</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5479,7 +5479,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262529</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,7 +5756,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.8158034133954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7546,16 +7546,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.1292871775962</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>202.0218894515945</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>47.21554925516972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.6320762792609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>148.5844758430729</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>72.44497470121462</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.21554925516972</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>31.77834493961083</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794694</v>
+        <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26335,25 +26335,25 @@
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="K2" t="n">
-        <v>322858.6398760022</v>
-      </c>
       <c r="L2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050426</v>
+        <v>49019.07124050417</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,25 +26433,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="I4" t="n">
-        <v>12386.92018181818</v>
-      </c>
       <c r="J4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="K4" t="n">
-        <v>12386.92018181815</v>
-      </c>
       <c r="L4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1187103.991750021</v>
+        <v>-1187290.38513856</v>
       </c>
       <c r="C6" t="n">
-        <v>128908.8124311506</v>
+        <v>128908.8124311505</v>
       </c>
       <c r="D6" t="n">
         <v>128908.8124311506</v>
       </c>
       <c r="E6" t="n">
-        <v>-116063.271937078</v>
+        <v>-116098.0098625137</v>
       </c>
       <c r="F6" t="n">
-        <v>209349.1898702774</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="G6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="H6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448416</v>
       </c>
       <c r="I6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448412</v>
       </c>
       <c r="J6" t="n">
-        <v>-8182.012527000377</v>
+        <v>-8216.750452436143</v>
       </c>
       <c r="K6" t="n">
-        <v>209349.189870277</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="L6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="M6" t="n">
-        <v>124294.1619347654</v>
+        <v>124259.4240093297</v>
       </c>
       <c r="N6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="O6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="P6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448415</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>107.2399275319464</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>117.8297776822728</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>51.12460430110289</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>112.8266028520943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.331335044147</v>
+        <v>328.3742596033516</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>215.876884114227</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>122.019073288895</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>267.9506035067351</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>365.3142798616626</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.33597558191495</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>208.7518820772848</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32081,13 +32081,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
